--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1458190.249583748</v>
+        <v>1455494.478011915</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12436699.94224556</v>
+        <v>12436666.27081003</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673449</v>
+        <v>603248.4937673444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10594176.54653642</v>
+        <v>10595014.33228836</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>116.704103435943</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="W2" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>162.1009162680796</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.997836182813689</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>123.5838339821181</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>42.23138714395016</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>25.18262159540336</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>311.9667603188034</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42130226825857</v>
+        <v>383.4773344784408</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9490894518051</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.32832091644302</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937181</v>
+        <v>383.4773344784408</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.1979621853992</v>
+        <v>36.28687735603322</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677171</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907027</v>
+        <v>143.0309654321255</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>193.9471662361903</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>225.839898471748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9432680061347</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>145.2984084131622</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>98.75348712045268</v>
+        <v>166.6977565348686</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629793</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422477691</v>
+        <v>1.928326488847858</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.491627498362</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4230353577824</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>234.1055905923177</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>73.24756871688399</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.32922279924999</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542791</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.3806586559973</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>96.15636898111887</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>28.41459999432871</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458127</v>
+        <v>86.64179915749274</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035337</v>
+        <v>8.28254627148992</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7670384496465</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.71400618771297</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.43478995232554</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672548</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>319.4395745411799</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>86.27179222793497</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.5753057141248</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833914</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>111.3598553131476</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>41.02686156550267</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>359.5517498754665</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.4021082756243</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>219.9117961520039</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>132.6315337216691</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060369</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819407</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179482</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>42.14967908985976</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673021</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>166.3208822291519</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428175</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>118.9504156453517</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703254</v>
+        <v>19.91555826189051</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756232</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>176.7621441121402</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268.4151888127974</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C2" t="n">
-        <v>268.4151888127974</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D2" t="n">
-        <v>268.4151888127974</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>268.4151888127974</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
@@ -4331,10 +4331,10 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030606</v>
@@ -4361,19 +4361,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>534.7928453799753</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W2" t="n">
-        <v>268.4151888127974</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X2" t="n">
-        <v>268.4151888127974</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y2" t="n">
-        <v>268.4151888127974</v>
+        <v>41.00642392276842</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>449.8779753016586</v>
+        <v>326.869123378691</v>
       </c>
       <c r="C3" t="n">
-        <v>449.8779753016586</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D3" t="n">
-        <v>449.8779753016586</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>659.7474918534679</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="V3" t="n">
-        <v>659.7474918534679</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="W3" t="n">
-        <v>659.7474918534679</v>
+        <v>742.4809223491777</v>
       </c>
       <c r="X3" t="n">
-        <v>451.895991647935</v>
+        <v>534.6294221436449</v>
       </c>
       <c r="Y3" t="n">
-        <v>449.8779753016586</v>
+        <v>326.869123378691</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.0733899644771</v>
+        <v>337.9463869104205</v>
       </c>
       <c r="C4" t="n">
-        <v>606.0733899644771</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D4" t="n">
-        <v>455.9567505521413</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>308.0436569697482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>161.1537094718379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>161.1537094718379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4495,7 +4495,7 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1012.197553193954</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>786.728516951968</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>786.728516951968</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>786.728516951968</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>786.728516951968</v>
       </c>
       <c r="X4" t="n">
-        <v>826.8659691080072</v>
+        <v>558.7389660539507</v>
       </c>
       <c r="Y4" t="n">
-        <v>606.0733899644771</v>
+        <v>337.9463869104205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>461.3591023533916</v>
+        <v>1146.558495006247</v>
       </c>
       <c r="C5" t="n">
-        <v>461.3591023533916</v>
+        <v>1146.558495006247</v>
       </c>
       <c r="D5" t="n">
-        <v>435.9221108428831</v>
+        <v>1146.558495006247</v>
       </c>
       <c r="E5" t="n">
-        <v>50.13385824463887</v>
+        <v>1146.558495006247</v>
       </c>
       <c r="F5" t="n">
-        <v>43.1883574954354</v>
+        <v>831.4405552902842</v>
       </c>
       <c r="G5" t="n">
-        <v>30.64158752749745</v>
+        <v>444.0897123827683</v>
       </c>
       <c r="H5" t="n">
-        <v>30.64158752749745</v>
+        <v>131.0098240476117</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749745</v>
+        <v>30.67818675827527</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281504</v>
+        <v>93.68840227144352</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452999</v>
+        <v>238.8628998583022</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192582</v>
+        <v>455.8664631799415</v>
       </c>
       <c r="M5" t="n">
-        <v>728.102615949427</v>
+        <v>728.994176929674</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730207</v>
+        <v>1011.155191012944</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145375</v>
+        <v>1264.256574219965</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739606</v>
+        <v>1445.771748220748</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374872</v>
+        <v>1533.909337913763</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374872</v>
+        <v>1533.909337913763</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.079376374872</v>
+        <v>1533.909337913763</v>
       </c>
       <c r="T5" t="n">
-        <v>1532.079376374872</v>
+        <v>1533.909337913763</v>
       </c>
       <c r="U5" t="n">
-        <v>1532.079376374872</v>
+        <v>1533.909337913763</v>
       </c>
       <c r="V5" t="n">
-        <v>1201.016489031302</v>
+        <v>1533.909337913763</v>
       </c>
       <c r="W5" t="n">
-        <v>848.2478337611876</v>
+        <v>1533.909337913763</v>
       </c>
       <c r="X5" t="n">
-        <v>848.2478337611876</v>
+        <v>1533.909337913763</v>
       </c>
       <c r="Y5" t="n">
-        <v>461.3591023533916</v>
+        <v>1146.558495006247</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.07387256325421</v>
+        <v>67.3315982290159</v>
       </c>
       <c r="C6" t="n">
-        <v>54.07387256325421</v>
+        <v>67.3315982290159</v>
       </c>
       <c r="D6" t="n">
-        <v>54.07387256325421</v>
+        <v>67.3315982290159</v>
       </c>
       <c r="E6" t="n">
-        <v>54.07387256325421</v>
+        <v>67.3315982290159</v>
       </c>
       <c r="F6" t="n">
-        <v>54.07387256325421</v>
+        <v>67.3315982290159</v>
       </c>
       <c r="G6" t="n">
-        <v>54.07387256325421</v>
+        <v>67.3315982290159</v>
       </c>
       <c r="H6" t="n">
-        <v>54.07387256325421</v>
+        <v>67.3315982290159</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749745</v>
+        <v>30.67818675827527</v>
       </c>
       <c r="J6" t="n">
-        <v>69.88900179495505</v>
+        <v>70.50414779342894</v>
       </c>
       <c r="K6" t="n">
-        <v>179.8878138897308</v>
+        <v>180.6383779085255</v>
       </c>
       <c r="L6" t="n">
-        <v>374.1173326028576</v>
+        <v>375.0499828615953</v>
       </c>
       <c r="M6" t="n">
-        <v>620.1308878987955</v>
+        <v>621.2760242110935</v>
       </c>
       <c r="N6" t="n">
-        <v>887.0643348829838</v>
+        <v>888.4275811224078</v>
       </c>
       <c r="O6" t="n">
-        <v>1109.036493992985</v>
+        <v>1110.599268204497</v>
       </c>
       <c r="P6" t="n">
-        <v>1267.855654846713</v>
+        <v>1269.578567846521</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374872</v>
+        <v>1533.909337913763</v>
       </c>
       <c r="R6" t="n">
-        <v>1527.597595565097</v>
+        <v>1533.909337913763</v>
       </c>
       <c r="S6" t="n">
-        <v>1383.105979715903</v>
+        <v>1389.433615255051</v>
       </c>
       <c r="T6" t="n">
-        <v>1187.1963023534</v>
+        <v>1193.527386733646</v>
       </c>
       <c r="U6" t="n">
-        <v>959.0751364936854</v>
+        <v>965.4062771662242</v>
       </c>
       <c r="V6" t="n">
-        <v>723.9230282619426</v>
+        <v>737.1807539277042</v>
       </c>
       <c r="W6" t="n">
-        <v>469.685671533741</v>
+        <v>482.9433971995027</v>
       </c>
       <c r="X6" t="n">
-        <v>261.8341713282081</v>
+        <v>275.0918969939698</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.07387256325421</v>
+        <v>67.3315982290159</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.3210214136216</v>
+        <v>495.6867262365055</v>
       </c>
       <c r="C7" t="n">
-        <v>550.3210214136216</v>
+        <v>495.6867262365055</v>
       </c>
       <c r="D7" t="n">
-        <v>550.3210214136216</v>
+        <v>348.9206571323012</v>
       </c>
       <c r="E7" t="n">
-        <v>402.4079278312284</v>
+        <v>201.0075635499081</v>
       </c>
       <c r="F7" t="n">
-        <v>402.4079278312284</v>
+        <v>201.0075635499081</v>
       </c>
       <c r="G7" t="n">
-        <v>302.6569307398621</v>
+        <v>32.62599129246502</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3987893309894</v>
+        <v>32.62599129246502</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626279</v>
+        <v>32.62599129246502</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749745</v>
+        <v>30.67818675827527</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747011</v>
+        <v>157.3778790199924</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914636</v>
+        <v>375.036298540648</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437713</v>
+        <v>614.9157070573576</v>
       </c>
       <c r="N7" t="n">
-        <v>854.08532866309</v>
+        <v>854.5259358182338</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109137</v>
+        <v>1059.828468603753</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016235</v>
+        <v>1211.97957028139</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767129</v>
+        <v>1233.886026315014</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767129</v>
+        <v>1233.886026315014</v>
       </c>
       <c r="S7" t="n">
-        <v>1029.675242304137</v>
+        <v>1233.886026315014</v>
       </c>
       <c r="T7" t="n">
-        <v>805.0055096195084</v>
+        <v>1233.886026315014</v>
       </c>
       <c r="U7" t="n">
-        <v>805.0055096195084</v>
+        <v>1233.886026315014</v>
       </c>
       <c r="V7" t="n">
-        <v>550.3210214136216</v>
+        <v>1233.886026315014</v>
       </c>
       <c r="W7" t="n">
-        <v>550.3210214136216</v>
+        <v>944.468856278053</v>
       </c>
       <c r="X7" t="n">
-        <v>550.3210214136216</v>
+        <v>716.4793053800356</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.3210214136216</v>
+        <v>495.6867262365055</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2363.652677778257</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2363.652677778257</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2363.652677778257</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>2363.652677778257</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="9">
@@ -4863,58 +4863,58 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>830.3960953426455</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1279.178225384193</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1279.178225384193</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1051.188674486176</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>830.3960953426455</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1658.823186223308</v>
+        <v>2310.622869249671</v>
       </c>
       <c r="C11" t="n">
-        <v>1289.860669282896</v>
+        <v>1941.660352309259</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.860669282896</v>
+        <v>1583.394653702509</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846521</v>
+        <v>1197.606401104264</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950446</v>
+        <v>786.620496314657</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469169</v>
+        <v>372.125688421307</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469169</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469169</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>317.3880320746716</v>
       </c>
       <c r="K11" t="n">
-        <v>704.515510442031</v>
+        <v>723.2234501947037</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301223</v>
+        <v>1263.599934653015</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878107</v>
+        <v>1896.542330458667</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765422</v>
+        <v>2544.340204328189</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687097</v>
+        <v>3142.702105990711</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856277</v>
+        <v>3618.889144608858</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882235</v>
+        <v>3928.313032718601</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234584</v>
+        <v>4022.8933421117</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234584</v>
+        <v>3925.765696676227</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750364</v>
+        <v>3722.316578060837</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382972</v>
+        <v>3468.832312715606</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039401</v>
+        <v>3440.130696559718</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769287</v>
+        <v>3087.362041289604</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.963183508207</v>
+        <v>3087.362041289604</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.823851532396</v>
+        <v>2697.222709313793</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>941.5545302742961</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>767.1015009931691</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503042</v>
+        <v>88.82407519727434</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469169</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792124</v>
+        <v>202.7540031635559</v>
       </c>
       <c r="K12" t="n">
-        <v>247.7399244450345</v>
+        <v>489.9324039036195</v>
       </c>
       <c r="L12" t="n">
-        <v>671.0277318723436</v>
+        <v>922.401744869645</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.341506116232</v>
+        <v>1446.429935688257</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467298</v>
+        <v>1510.228841936572</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333047</v>
+        <v>1993.261411868773</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2361.604567899688</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.215892839358</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2242.818644810297</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2014.771131224795</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1779.619022993052</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1525.381666264851</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1317.530166059318</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1109.769867294364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>370.6592153021029</v>
+        <v>321.5504032573386</v>
       </c>
       <c r="C13" t="n">
-        <v>370.6592153021029</v>
+        <v>152.6142203294316</v>
       </c>
       <c r="D13" t="n">
-        <v>370.6592153021029</v>
+        <v>152.6142203294316</v>
       </c>
       <c r="E13" t="n">
-        <v>222.7461217197098</v>
+        <v>152.6142203294316</v>
       </c>
       <c r="F13" t="n">
-        <v>222.7461217197098</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469169</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469169</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600394</v>
+        <v>143.5350566283901</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457696</v>
+        <v>377.0270927076817</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888905</v>
+        <v>731.3429449977125</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779219</v>
+        <v>1115.308455583784</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1495.578740955085</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715847</v>
+        <v>1830.803602510216</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082518</v>
+        <v>2094.125701226117</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551102</v>
+        <v>2193.001193167697</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551102</v>
+        <v>2193.001193167697</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906985</v>
+        <v>2005.830897168753</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.29432245703</v>
+        <v>1785.17138995001</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897319</v>
+        <v>1496.082656371973</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691432</v>
+        <v>1241.398168166086</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544713</v>
+        <v>951.9809981291257</v>
       </c>
       <c r="X13" t="n">
-        <v>686.112406756454</v>
+        <v>723.9914472311084</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129239</v>
+        <v>503.1988680875783</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200325</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364392</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,28 +5276,28 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5312,16 +5312,16 @@
         <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.398533126175</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.62987785606</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>301.0525042748304</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4596049779265</v>
+        <v>791.7848371185818</v>
       </c>
       <c r="M15" t="n">
-        <v>698.3321947254761</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124812</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220737</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>494.0589900220737</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D16" t="n">
-        <v>494.0589900220737</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494121</v>
+        <v>346.1458964396802</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>199.2559489417699</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608056</v>
+        <v>199.2559489417699</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821982</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
         <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930822</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958435</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523134</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608051</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622267</v>
+        <v>494.0589900220735</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343198</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219839</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395909</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F19" t="n">
-        <v>302.4540366416805</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G19" t="n">
-        <v>135.2579373565605</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934014</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035997</v>
+        <v>896.5000339958433</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>675.7074548523132</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273905</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273905</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098238</v>
+        <v>848.5402036081962</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819169</v>
+        <v>679.6040206802893</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>529.4873812679534</v>
       </c>
       <c r="E22" t="n">
-        <v>516.3896878871881</v>
+        <v>381.5742876855604</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G22" t="n">
-        <v>202.3036411041576</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156341</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>431.4224730861978</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>2023.072456722831</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1768.387968516944</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1478.970798479983</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783594</v>
+        <v>1250.981247581966</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>1030.188668438436</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098238</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819169</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3896878871881</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892779</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327638</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048569</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925213</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101283</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>149.898275412218</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511391</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630036</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,52 +6458,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>741.8431516380849</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>572.906968710178</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>572.906968710178</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>424.9938751277849</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>278.1039276298745</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683281</v>
       </c>
     </row>
     <row r="32">
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400703</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121634</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121634</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121634</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121635</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138402</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.50206557031</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400703</v>
+        <v>931.4710609784062</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121634</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121634</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121634</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121635</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270441</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1924.354849262802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138402</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.50206557031</v>
+        <v>931.4710609784062</v>
       </c>
     </row>
     <row r="41">
@@ -7412,25 +7412,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.85360074007</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>344.917417812163</v>
+        <v>411.963121559762</v>
       </c>
       <c r="D43" t="n">
-        <v>344.917417812163</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E43" t="n">
-        <v>344.917417812163</v>
+        <v>113.933388565033</v>
       </c>
       <c r="F43" t="n">
-        <v>344.917417812163</v>
+        <v>113.933388565033</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,49 +7570,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611857</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138397</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703097</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7652,13 +7652,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536382</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257313</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133955</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625426</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752732</v>
+        <v>34.48513033188075</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>20.82428212787683</v>
+        <v>21.32864171282201</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471575</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.030432851515</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.35318300748332</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6077720323805</v>
+        <v>19.53007201344977</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>299.3376584758062</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.11797399422433</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>73.9862580706057</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034046</v>
+        <v>88.63818461247369</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146351</v>
+        <v>77.39811087628544</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>60.1621704186342</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>116.8786840778291</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50.29152613729156</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>55.88696578548019</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>99.26785128072119</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>50.2915261372911</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>32.89260457059952</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>66.2736553964165</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516652</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194127</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347518</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>123.3744592024091</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194208</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.9259388694758854</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194264</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>167.2340587438924</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194349</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.003342051665</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>75.37549921168781</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>938409.6292054772</v>
+        <v>938414.6799208068</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838337.240842352</v>
+        <v>848387.6039592964</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917189.084126442</v>
+        <v>912163.9025679698</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917189.084126442</v>
+        <v>912163.9025679698</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264416</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.084126442</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651772</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>460660.0452039816</v>
+        <v>466243.5802689508</v>
       </c>
       <c r="F2" t="n">
-        <v>501674.8572737695</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="G2" t="n">
+        <v>501674.8572737693</v>
+      </c>
+      <c r="H2" t="n">
+        <v>501674.8572737692</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
@@ -26366,43 +26366,43 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.909810357</v>
+        <v>132571.3256199709</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196329</v>
+        <v>265633.5342698639</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357049</v>
+        <v>348407.042397964</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051398</v>
+        <v>143852.0300046394</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744882</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648434</v>
+        <v>30823.2807518195</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950777</v>
+        <v>65071.59368054799</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456778</v>
+        <v>90993.97560824291</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848965</v>
+        <v>37822.10612282979</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
-        <v>213728.6998709237</v>
+        <v>213591.7691971291</v>
       </c>
       <c r="D4" t="n">
-        <v>137930.4104072219</v>
+        <v>137930.4104072218</v>
       </c>
       <c r="E4" t="n">
-        <v>9848.023364462853</v>
+        <v>9860.618569143848</v>
       </c>
       <c r="F4" t="n">
         <v>9940.611700543546</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9940.611700543546</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9940.611700543546</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26442,19 +26442,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768905</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768901</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26470,22 +26470,22 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.5095058975</v>
+        <v>72576.91021638199</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214697</v>
+        <v>88006.19635166996</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-479422.6439609866</v>
+        <v>-479422.6439609865</v>
       </c>
       <c r="C6" t="n">
-        <v>94816.98697799878</v>
+        <v>94411.10113169508</v>
       </c>
       <c r="D6" t="n">
-        <v>16170.00509847744</v>
+        <v>16649.38904824643</v>
       </c>
       <c r="E6" t="n">
-        <v>39531.18064166681</v>
+        <v>19782.09284658808</v>
       </c>
       <c r="F6" t="n">
-        <v>225070.7699542478</v>
+        <v>247694.1820591824</v>
       </c>
       <c r="G6" t="n">
-        <v>382229.7144249988</v>
+        <v>391546.2120638218</v>
       </c>
       <c r="H6" t="n">
-        <v>393396.9506605778</v>
+        <v>391546.2120638218</v>
       </c>
       <c r="I6" t="n">
-        <v>393396.950660578</v>
+        <v>382543.2992776931</v>
       </c>
       <c r="J6" t="n">
-        <v>324397.7962414636</v>
+        <v>324363.0583160279</v>
       </c>
       <c r="K6" t="n">
-        <v>362691.4132940935</v>
+        <v>362538.9319833223</v>
       </c>
       <c r="L6" t="n">
-        <v>328209.57028107</v>
+        <v>328290.619054594</v>
       </c>
       <c r="M6" t="n">
-        <v>308467.3563160099</v>
+        <v>302368.237126899</v>
       </c>
       <c r="N6" t="n">
-        <v>349614.5441020881</v>
+        <v>355540.1066123123</v>
       </c>
       <c r="O6" t="n">
-        <v>390373.6526833532</v>
+        <v>393362.2127351422</v>
       </c>
       <c r="P6" t="n">
-        <v>393396.9506605777</v>
+        <v>393362.212735142</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26738,22 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605248</v>
+        <v>717.1508385363663</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1232.028328053766</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937181</v>
+        <v>383.4773344784408</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086461</v>
+        <v>1005.723335527925</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26960,31 +26960,31 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910465</v>
+        <v>103.0958247668881</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570143</v>
+        <v>216.9140535811731</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770154</v>
+        <v>297.963435936227</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218313</v>
+        <v>126.0127206626194</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
+        <v>9.934451625288375</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27012,43 +27012,43 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922119</v>
+        <v>119.7634544769347</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063207</v>
+        <v>257.1074976215983</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086073</v>
+        <v>365.138503427886</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173609</v>
+        <v>154.4219547980819</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922117</v>
+        <v>119.7634544769344</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063209</v>
+        <v>257.1074976215985</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086073</v>
+        <v>365.138503427886</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173609</v>
+        <v>154.4219547980819</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922119</v>
+        <v>119.7634544769347</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063207</v>
+        <v>257.1074976215983</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086073</v>
+        <v>365.138503427886</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173609</v>
+        <v>154.4219547980819</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>290.1719423057684</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>115.1832933522298</v>
       </c>
       <c r="W2" t="n">
         <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>89.59406689283998</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.6848595944907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>28.7983253537387</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>162.4877770996436</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>329.5004200252796</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>94.909285422908</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>28.94238459031689</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936934</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520033</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980475</v>
+        <v>143.3232867394214</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>210.4754363151145</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1151380880864</v>
+        <v>251.1150114321263</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.218094562335523</v>
+        <v>2.760604177612777</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8018133893748</v>
+        <v>135.8009663029626</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339764</v>
+        <v>97.33765040199572</v>
       </c>
       <c r="I6" t="n">
-        <v>13.11808020719399</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.384369338295912</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>6.857319143290539</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>3.31706460505012</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>67.94497958320842</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7292459486106</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5597376505648</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714489</v>
+        <v>119.1453906001061</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4792511931327</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4200010002144</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>286.2484899297496</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>131.1673011786899</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>133.4106162633498</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>149.9175982993779</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28068,10 +28068,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-1.907196929724979e-12</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.769894020931714e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876479</v>
+        <v>2.88301844637735</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207375</v>
+        <v>29.52571266396204</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552056</v>
+        <v>111.1475686539629</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845828</v>
+        <v>244.6925868632198</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848642</v>
+        <v>366.7307576983731</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214604</v>
+        <v>454.961933476694</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167931</v>
+        <v>506.2328127724572</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882878</v>
+        <v>514.4241889332269</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521598</v>
+        <v>485.7561742570621</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948966</v>
+        <v>414.5816563621212</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161326</v>
+        <v>311.3335582512323</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266048</v>
+        <v>181.1004074822514</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819784</v>
+        <v>65.69678284682392</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320179</v>
+        <v>12.62041324901686</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501183</v>
+        <v>0.2306414757101879</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835846</v>
+        <v>1.542550860248033</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309883</v>
+        <v>14.89779383450074</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882189</v>
+        <v>53.10975549538185</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342016</v>
+        <v>145.7372284236969</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812032</v>
+        <v>249.0881360603151</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234366</v>
+        <v>334.9297383183285</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249859</v>
+        <v>390.8472070023196</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118063</v>
+        <v>401.1917695695093</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757593</v>
+        <v>367.0120899819082</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160748</v>
+        <v>294.5595585678898</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584143</v>
+        <v>196.9052641958718</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096596</v>
+        <v>95.77346481434722</v>
       </c>
       <c r="S6" t="n">
-        <v>28.6364714131351</v>
+        <v>28.65220567171236</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943604</v>
+        <v>6.217562458631325</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576215</v>
+        <v>0.1014836092268443</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797668</v>
+        <v>1.293222823590169</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265563</v>
+        <v>11.49792655882896</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427896</v>
+        <v>38.89073727669345</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419508</v>
+        <v>91.43085362782492</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574017</v>
+        <v>150.2489789589305</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232823</v>
+        <v>192.2669641544875</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970562</v>
+        <v>202.7185558833207</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291741</v>
+        <v>197.8983617226666</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981286</v>
+        <v>182.7911678289086</v>
       </c>
       <c r="P7" t="n">
-        <v>156.323530540256</v>
+        <v>156.4094222276691</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667392</v>
+        <v>108.2897766189913</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572056</v>
+        <v>58.14800077706339</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861025</v>
+        <v>22.53734684383957</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499123</v>
+        <v>5.525588428067083</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169103</v>
+        <v>0.07053942674128201</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485643</v>
+        <v>4.952877700718656</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508985</v>
+        <v>50.72365875248494</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380254</v>
+        <v>190.9458175569561</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307174</v>
+        <v>420.3693037513704</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726049</v>
+        <v>630.0246168227911</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216962</v>
+        <v>781.6012477561599</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857414</v>
+        <v>869.6819865663152</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898376</v>
+        <v>883.7543503334822</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294397</v>
+        <v>834.5041726969609</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615128</v>
+        <v>712.2300044604691</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895581</v>
+        <v>534.855071803482</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356978</v>
+        <v>311.1212038677685</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>112.8637006051265</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475341</v>
+        <v>21.68122213489593</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188513</v>
+        <v>0.3962302160574924</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969419</v>
+        <v>2.65002319619112</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191519</v>
+        <v>25.59364507900372</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596466</v>
+        <v>91.23983372851008</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783038</v>
+        <v>250.3690774962848</v>
       </c>
       <c r="K12" t="n">
-        <v>189.2837238893308</v>
+        <v>427.9206316410899</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256409</v>
+        <v>575.3920979273747</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845322</v>
+        <v>671.4554387893027</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147131</v>
+        <v>195.7850517280959</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431802</v>
+        <v>630.5079312446478</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205464</v>
+        <v>506.0382013849518</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>338.2731364120455</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.4296328569758</v>
+        <v>49.22301857837451</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.68145314605105</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190408</v>
+        <v>0.1743436313283633</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236082</v>
+        <v>2.221690427637939</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737172</v>
+        <v>19.75284762027188</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691782</v>
+        <v>66.81229031478459</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>157.0735132340023</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619738</v>
+        <v>258.1200333201169</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509172</v>
+        <v>330.3047750326442</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263705</v>
+        <v>348.2600731250998</v>
       </c>
       <c r="N13" t="n">
-        <v>334.499378897309</v>
+        <v>339.9792269857223</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050056</v>
+        <v>314.0258433537699</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761893</v>
+        <v>268.7033586299557</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916777</v>
+        <v>186.0362775361187</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570598</v>
+        <v>99.89528050088404</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929607</v>
+        <v>38.71800499801753</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826892</v>
+        <v>9.492677281725738</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1211831142347968</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,13 +32078,13 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>199.0463877591104</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>604.6315993235836</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927639</v>
@@ -32093,13 +32093,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832324</v>
+        <v>636.218582673967</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614911</v>
+        <v>467.4901056247186</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789653</v>
+        <v>63.64668233653353</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398837</v>
+        <v>146.6409066533926</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514732</v>
+        <v>219.1955185067068</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658272</v>
+        <v>275.8865795451845</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916969</v>
+        <v>285.011125336636</v>
       </c>
       <c r="O5" t="n">
-        <v>255.391211530473</v>
+        <v>255.6579628353753</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396271</v>
+        <v>183.3486606068516</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168315</v>
+        <v>89.02786837678278</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>39.64385279541172</v>
+        <v>40.2282434698522</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068442</v>
+        <v>111.2466970859561</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435624</v>
+        <v>196.3753585384543</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029676</v>
+        <v>248.7131730803013</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284729</v>
+        <v>269.8500574861761</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313149</v>
+        <v>224.4158455374637</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017446</v>
+        <v>160.5851511535596</v>
       </c>
       <c r="Q6" t="n">
-        <v>266.8926480082418</v>
+        <v>267.0007778456994</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315188</v>
+        <v>127.9794871330476</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835985</v>
+        <v>219.8569894148036</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588967</v>
+        <v>242.3024328451613</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084027</v>
+        <v>242.0305341018952</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121682</v>
+        <v>207.3762957429483</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051495</v>
+        <v>153.6879814925626</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504485</v>
+        <v>22.12773336729693</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>622.455381029198</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040311</v>
+        <v>239.3233992246841</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276243</v>
+        <v>409.9347657778106</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517089</v>
+        <v>545.8348327861727</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584687</v>
+        <v>639.3357533390425</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932467</v>
+        <v>654.3412867368913</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077529</v>
+        <v>604.4059612752742</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062433</v>
+        <v>480.9970087051996</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151086</v>
+        <v>312.5493819290325</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156564</v>
+        <v>95.53566605363642</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116371</v>
+        <v>123.5314508296181</v>
       </c>
       <c r="K12" t="n">
-        <v>51.44228491497184</v>
+        <v>290.0791926667309</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457667</v>
+        <v>436.8377181475005</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625139</v>
+        <v>529.3214048672844</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313799</v>
+        <v>64.44333964476263</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987357</v>
+        <v>487.9116868002034</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062162</v>
+        <v>372.0637939706215</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>198.291362326024</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701818</v>
+        <v>63.71433311732952</v>
       </c>
       <c r="K13" t="n">
-        <v>231.690115036091</v>
+        <v>235.850541494234</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112333</v>
+        <v>357.8948002929603</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788211</v>
+        <v>387.8439500869404</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765376</v>
+        <v>384.1113993649509</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190452</v>
+        <v>338.6109712678096</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410828</v>
+        <v>265.9819178948492</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998335</v>
+        <v>99.87423428442433</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>61.20494878475142</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>462.4975654015653</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094306</v>
@@ -35741,13 +35741,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998991</v>
+        <v>504.8768705906338</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394727</v>
+        <v>325.3560717027003</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306624</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.626132989906</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060454</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
